--- a/etc/노동부_프로젝트제안.xlsx
+++ b/etc/노동부_프로젝트제안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_x\lecNote\10_1stProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\10_1stProject\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C40318-AA67-4513-A298-39273208FB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD4A594-1029-46FA-B643-F0B17396738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21768" yWindow="-1308" windowWidth="18528" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1. 프로젝트 학습" sheetId="1" r:id="rId1"/>
@@ -475,41 +475,6 @@
     <t xml:space="preserve">
 (이미지·텍스트 생성)
 1석3조 마케팅 콘텐츠 웹/앱 개발 및 제안</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>○ 프로젝트 난이도 : Lv3
-○ 프로젝트 수행 기술
-  - 이미지 및 텍스트 솔루션 사용
-  - Embedding
-  - Vector DB &amp; RAG
-  - Prompt Engineering
-  - Fine-Tuning
-  - User Interface
-○ 개발·수행 내용
- - 1단계: [Design Thinking] 기반 개발 계획 수립 |주제별 공통|
-   · [Empathize] 고객 Persona 설정, Empathy Map 작성
-   · [Definition] 문제 정의, To-be Customer Journey 작성
-   · 요구사항 정의서 작성 및 세부 개발 계획 수립
- - 2단계: 개발환경 준비 |주제별 상이|
-   · 데이터 확보 및 정의 (참조 이미지 데이터)
-   · Vector DB 생성, RAG 환경 구성
- - 3단계: Prompt Engineering |주제별 상이|
-   · 콘텐츠 생성 요청 프롬프트 설계
-   · 이미지 및 텍스트 생성 LLM 엔진 연계 및 활용
-   · 3개 언어(한국어,영어,스페인어) 버전의 콘텐츠 생성 프롬프트 설계 
-   · 생성된 후보 콘텐츠 검토 및 선택 화면 설계(UI)
-   · [Prototype] 프로토타입 설계, 제작 및 보완
- - 4단계: Fine-Tuning |주제별 상이|
-   · 요청사항에 따른 이미지/텍스트 생성 정확도 향상을 위한 모델 조정
-   · 3개 언어 번역 적정성 검토 및 조정 
- - 5단계: 제안PT |주제별 공통|
-   · 제안 스토리보드 구성, 제안 PT자료 작성
-   · 제안PT
-○ 주요 기능
-  - 자연어 요청사항 기반 이미지 및 텍스트 생성
-  - 동일 요청사항에 대한 3개 언어 버전의 이미지 및 텍스트 생성
-  - 생성된 이미지 및 텍스트 다운로드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1205,12 +1170,47 @@
 Chrome / Google Colaboratory(Colab) / Visual studio / MySQL / Github Desktop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>○ 프로젝트 난이도 : Lv3
+○ 프로젝트 수행 기술
+  - 이미지 및 텍스트 솔루션 사용
+  - Embedding
+  - Vector DB &amp; RAG
+  - Prompt Engineering
+  - Fine-Tuning
+  - User Interface
+○ 개발·수행 내용
+ - 1단계: [Design Thinking] 기반 개발 계획 수립 |주제별 공통|
+   · [Empathize] 고객 Persona 설정, Empathy Map 작성
+   · [Definition] 문제 정의, To-be Customer Journey 작성
+   · 요구사항 정의서 작성 및 세부 개발 계획 수립
+ - 2단계: 개발환경 준비 |주제별 상이|
+   · 데이터 확보 및 정의 (참조 이미지 데이터)
+   · Vector DB 생성, RAG 환경 구성
+ - 3단계: Prompt Engineering |주제별 상이|
+   · 콘텐츠 생성 요청 프롬프트 설계
+   · 이미지 및 텍스트 생성 LLM 엔진 연계 및 활용
+   · 3개 언어(한국어,영어,스페인어) 버전의 콘텐츠 생성 프롬프트 설계 
+   · 생성된 후보 콘텐츠 검토 및 선택 화면 설계(UI)
+   · [Prototype] 프로토타입 설계, 제작 및 보완
+ - 4단계: Fine-Tuning |주제별 상이|
+   · 요청사항에 따른 이미지/텍스트 생성 정확도 향상을 위한 모델 조정
+   · 3개 언어 번역 적정성 검토 및 조정 
+ - 5단계: 제안PT |주제별 공통|
+   · 제안 스토리보드 구성, 제안 PT자료 작성
+   · 제안PT
+○ 주요 기능
+  - 자연어 요청사항 기반 이미지 및 텍스트 생성
+  - 동일 요청사항에 대한 3개 언어 버전의 이미지 및 텍스트 생성
+  - 생성된 이미지 및 텍스트 다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2307,27 +2307,318 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,9 +2634,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2373,293 +2661,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2691,15 +2802,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2715,9 +2817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2748,106 +2847,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7918,8 +7918,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="501560" y="44701644"/>
-          <a:ext cx="6527779" cy="1616658"/>
+          <a:off x="503465" y="44627349"/>
+          <a:ext cx="6541114" cy="1612848"/>
           <a:chOff x="7892143" y="95576572"/>
           <a:chExt cx="6646092" cy="1612848"/>
         </a:xfrm>
@@ -10648,11 +10648,11 @@
   </sheetPr>
   <dimension ref="B2:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:N16"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="1.625" customWidth="1"/>
@@ -10665,765 +10665,765 @@
     <col min="22" max="22" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="26.25">
+    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="8.1" customHeight="1">
+    <row r="3" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="27" thickBot="1">
-      <c r="C4" s="38" t="s">
+    <row r="4" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="2:15" ht="36.75" customHeight="1">
-      <c r="C5" s="39" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-    </row>
-    <row r="6" spans="2:15" ht="32.25" customHeight="1">
-      <c r="C6" s="42" t="s">
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="138"/>
+    </row>
+    <row r="6" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="140"/>
+      <c r="E6" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="43"/>
+      <c r="N6" s="140"/>
       <c r="O6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="45.75" customHeight="1">
-      <c r="C7" s="44" t="s">
+    <row r="7" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="2:15" ht="32.25" customHeight="1">
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="144"/>
+    </row>
+    <row r="8" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="134"/>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="52">
+      <c r="N8" s="141"/>
+      <c r="O8" s="148">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="32.25" customHeight="1">
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
+    <row r="9" spans="2:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="2:15" ht="72" customHeight="1">
-      <c r="C10" s="35" t="s">
+      <c r="M9" s="146"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="149"/>
+    </row>
+    <row r="10" spans="2:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" s="36"/>
+      <c r="M10" s="135" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="123"/>
       <c r="O10" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="24.75" customHeight="1">
-      <c r="C11" s="54" t="s">
+    <row r="11" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
       <c r="O11" s="7">
         <f>O8+O10</f>
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="24.95" customHeight="1">
-      <c r="C12" s="54" t="s">
+    <row r="12" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
       <c r="O12" s="7">
         <v>824</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C13" s="56" t="s">
+    <row r="13" spans="2:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
       <c r="O13" s="8">
         <f>O11/O12</f>
         <v>0.33980582524271846</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="15" spans="2:15" ht="24.95" customHeight="1">
-      <c r="C15" s="58" t="s">
+    <row r="14" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-    </row>
-    <row r="16" spans="2:15" ht="294.75" customHeight="1">
-      <c r="C16" s="35" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="121"/>
+    </row>
+    <row r="16" spans="2:15" ht="294.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="123"/>
+      <c r="E16" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="126"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="3:15" ht="146.25" customHeight="1">
-      <c r="C17" s="63" t="s">
+    <row r="17" spans="3:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-    </row>
-    <row r="18" spans="3:15" ht="70.150000000000006" customHeight="1">
-      <c r="C18" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="74" t="s">
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="132"/>
+    </row>
+    <row r="18" spans="3:15" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
-    </row>
-    <row r="19" spans="3:15" ht="67.150000000000006" customHeight="1">
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="74" t="s">
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+    </row>
+    <row r="19" spans="3:15" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-    </row>
-    <row r="20" spans="3:15" ht="67.900000000000006" customHeight="1" thickBot="1">
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="77" t="s">
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+    </row>
+    <row r="20" spans="3:15" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
-    </row>
-    <row r="22" spans="3:15" ht="27" thickBot="1">
-      <c r="C22" s="38" t="s">
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="108"/>
+    </row>
+    <row r="22" spans="3:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="3:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C23" s="80" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="3:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="83"/>
-    </row>
-    <row r="25" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C25" s="102" t="s">
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112"/>
+    </row>
+    <row r="25" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-    </row>
-    <row r="26" spans="3:15" ht="33" customHeight="1">
-      <c r="C26" s="104" t="s">
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+    </row>
+    <row r="26" spans="3:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105" t="s">
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105" t="s">
+      <c r="L26" s="88"/>
+      <c r="M26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="105"/>
-      <c r="O26" s="106"/>
-    </row>
-    <row r="27" spans="3:15" ht="395.25" customHeight="1">
-      <c r="C27" s="84" t="s">
+      <c r="N26" s="88"/>
+      <c r="O26" s="89"/>
+    </row>
+    <row r="27" spans="3:15" ht="395.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="88" t="s">
+      <c r="D27" s="82"/>
+      <c r="E27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="90" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="90"/>
-      <c r="M27" s="92" t="s">
+      <c r="L27" s="83"/>
+      <c r="M27" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
-    </row>
-    <row r="28" spans="3:15" ht="279.75" customHeight="1">
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97"/>
-    </row>
-    <row r="29" spans="3:15" ht="409.5" customHeight="1">
-      <c r="C29" s="84" t="s">
+      <c r="N27" s="92"/>
+      <c r="O27" s="93"/>
+    </row>
+    <row r="28" spans="3:15" ht="279.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
+    </row>
+    <row r="29" spans="3:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="88" t="s">
+      <c r="D29" s="82"/>
+      <c r="E29" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="92" t="s">
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
-    </row>
-    <row r="30" spans="3:15" ht="179.25" customHeight="1" thickBot="1">
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
-    </row>
-    <row r="31" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C31" s="98" t="s">
+      <c r="N29" s="92"/>
+      <c r="O29" s="93"/>
+    </row>
+    <row r="30" spans="3:15" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
+    </row>
+    <row r="31" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-    </row>
-    <row r="32" spans="3:15" ht="15" customHeight="1" thickBot="1">
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="101"/>
-    </row>
-    <row r="33" spans="3:15">
-      <c r="C33" s="111" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+    </row>
+    <row r="32" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-    </row>
-    <row r="34" spans="3:15">
-      <c r="C34" s="111" t="s">
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-    </row>
-    <row r="35" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C35" s="103" t="s">
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+    </row>
+    <row r="35" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-    </row>
-    <row r="36" spans="3:15" ht="17.25">
-      <c r="C36" s="112" t="s">
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+    </row>
+    <row r="36" spans="3:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C36" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114" t="s">
+      <c r="D36" s="77"/>
+      <c r="E36" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="116"/>
-    </row>
-    <row r="37" spans="3:15" ht="114" customHeight="1">
-      <c r="C37" s="84" t="s">
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="80"/>
+    </row>
+    <row r="37" spans="3:15" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="90" t="s">
+      <c r="D37" s="82"/>
+      <c r="E37" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="107"/>
-    </row>
-    <row r="38" spans="3:15" ht="313.14999999999998" customHeight="1">
-      <c r="C38" s="84" t="s">
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="84"/>
+    </row>
+    <row r="38" spans="3:15" ht="313.14999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="90" t="s">
+      <c r="D38" s="82"/>
+      <c r="E38" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="107"/>
-    </row>
-    <row r="39" spans="3:15" ht="165" customHeight="1" thickBot="1">
-      <c r="C39" s="86" t="s">
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="84"/>
+    </row>
+    <row r="39" spans="3:15" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="110"/>
-    </row>
-    <row r="40" spans="3:15">
-      <c r="C40" s="111" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
-    </row>
-    <row r="41" spans="3:15">
-      <c r="C41" s="111" t="s">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="111"/>
-    </row>
-    <row r="42" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C42" s="103" t="s">
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+    </row>
+    <row r="42" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-    </row>
-    <row r="43" spans="3:15" ht="17.25">
-      <c r="C43" s="112" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+    </row>
+    <row r="43" spans="3:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C43" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="113"/>
-      <c r="E43" s="114" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="115"/>
-      <c r="O43" s="116"/>
-    </row>
-    <row r="44" spans="3:15" ht="114" customHeight="1">
-      <c r="C44" s="84" t="s">
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="80"/>
+    </row>
+    <row r="44" spans="3:15" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="90" t="s">
+      <c r="D44" s="82"/>
+      <c r="E44" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="107"/>
-    </row>
-    <row r="45" spans="3:15" ht="353.25" customHeight="1">
-      <c r="C45" s="84" t="s">
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="84"/>
+    </row>
+    <row r="45" spans="3:15" ht="353.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="90" t="s">
+      <c r="D45" s="82"/>
+      <c r="E45" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="107"/>
-    </row>
-    <row r="46" spans="3:15" ht="165" customHeight="1" thickBot="1">
-      <c r="C46" s="86" t="s">
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="84"/>
+    </row>
+    <row r="46" spans="3:15" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="110"/>
-    </row>
-    <row r="47" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="48" spans="3:15" ht="16.5" customHeight="1">
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="74"/>
+    </row>
+    <row r="47" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -11438,8 +11438,8 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1"/>
-    <row r="50" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1">
+    <row r="49" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="3:15" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -11454,175 +11454,175 @@
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="3:15" ht="27" thickBot="1">
-      <c r="C51" s="38" t="s">
+    <row r="51" spans="3:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-    </row>
-    <row r="52" spans="3:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C52" s="122" t="s">
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+    </row>
+    <row r="52" spans="3:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="126"/>
-    </row>
-    <row r="53" spans="3:15" ht="16.5" customHeight="1"/>
-    <row r="54" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C54" s="127" t="s">
+      <c r="D52" s="62"/>
+      <c r="E52" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="65"/>
+    </row>
+    <row r="53" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="127"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="127"/>
-      <c r="N54" s="127"/>
-      <c r="O54" s="127"/>
-    </row>
-    <row r="55" spans="3:15" ht="33" customHeight="1">
-      <c r="C55" s="128" t="s">
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+    </row>
+    <row r="55" spans="3:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129" t="s">
+      <c r="D55" s="68"/>
+      <c r="E55" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129" t="s">
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129" t="s">
+      <c r="L55" s="68"/>
+      <c r="M55" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
-    </row>
-    <row r="56" spans="3:15" ht="309.95" customHeight="1">
-      <c r="C56" s="117" t="s">
+      <c r="N55" s="68"/>
+      <c r="O55" s="69"/>
+    </row>
+    <row r="56" spans="3:15" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="118"/>
-      <c r="E56" s="119" t="s">
+      <c r="D56" s="57"/>
+      <c r="E56" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="120" t="s">
+      <c r="L56" s="49"/>
+      <c r="M56" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120" t="s">
+      <c r="N56" s="49"/>
+      <c r="O56" s="59"/>
+    </row>
+    <row r="57" spans="3:15" ht="309" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="59"/>
+    </row>
+    <row r="58" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="3:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="55"/>
+    </row>
+    <row r="61" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C62" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="N56" s="120"/>
-      <c r="O56" s="121"/>
-    </row>
-    <row r="57" spans="3:15" ht="309" customHeight="1">
-      <c r="C57" s="117"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="121"/>
-    </row>
-    <row r="58" spans="3:15" ht="16.5" customHeight="1"/>
-    <row r="59" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C59" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-    </row>
-    <row r="60" spans="3:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
-      <c r="O60" s="101"/>
-    </row>
-    <row r="61" spans="3:15" ht="16.5" customHeight="1"/>
-    <row r="62" spans="3:15">
-      <c r="C62" s="131" t="s">
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C63" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="131"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="131"/>
-      <c r="O62" s="131"/>
-    </row>
-    <row r="63" spans="3:15">
-      <c r="C63" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -11637,9 +11637,9 @@
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="3:15" ht="17.25" thickBot="1">
+    <row r="64" spans="3:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -11654,200 +11654,200 @@
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
     </row>
-    <row r="65" spans="3:15" ht="17.25">
-      <c r="C65" s="132" t="s">
+    <row r="65" spans="3:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C65" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133" t="s">
+      <c r="D65" s="45"/>
+      <c r="E65" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="133"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="134"/>
-    </row>
-    <row r="66" spans="3:15" ht="141" customHeight="1">
-      <c r="C66" s="135" t="s">
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="46"/>
+    </row>
+    <row r="66" spans="3:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="136"/>
-      <c r="E66" s="120" t="s">
+      <c r="D66" s="48"/>
+      <c r="E66" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="51"/>
+    </row>
+    <row r="67" spans="3:15" ht="230.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="137"/>
-      <c r="M66" s="137"/>
-      <c r="N66" s="137"/>
-      <c r="O66" s="138"/>
-    </row>
-    <row r="67" spans="3:15" ht="230.45" customHeight="1">
-      <c r="C67" s="135" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="136"/>
-      <c r="E67" s="120" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="51"/>
+    </row>
+    <row r="68" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="137"/>
-      <c r="L67" s="137"/>
-      <c r="M67" s="137"/>
-      <c r="N67" s="137"/>
-      <c r="O67" s="138"/>
-    </row>
-    <row r="68" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C68" s="145" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="146"/>
-      <c r="E68" s="149" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="149"/>
-      <c r="G68" s="149"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="149"/>
-      <c r="J68" s="149"/>
-      <c r="K68" s="139" t="s">
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="33"/>
+    </row>
+    <row r="69" spans="3:15" ht="185.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="35"/>
+    </row>
+    <row r="70" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="140"/>
-    </row>
-    <row r="69" spans="3:15" ht="185.1" customHeight="1">
-      <c r="C69" s="145"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="141"/>
-      <c r="O69" s="142"/>
-    </row>
-    <row r="70" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C70" s="145"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="149" t="s">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="149"/>
-      <c r="K70" s="139" t="s">
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="33"/>
+    </row>
+    <row r="71" spans="3:15" ht="185.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="35"/>
+    </row>
+    <row r="72" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L70" s="139"/>
-      <c r="M70" s="139"/>
-      <c r="N70" s="139"/>
-      <c r="O70" s="140"/>
-    </row>
-    <row r="71" spans="3:15" ht="185.1" customHeight="1">
-      <c r="C71" s="145"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="141"/>
-      <c r="J71" s="141"/>
-      <c r="K71" s="141"/>
-      <c r="L71" s="141"/>
-      <c r="M71" s="141"/>
-      <c r="N71" s="141"/>
-      <c r="O71" s="142"/>
-    </row>
-    <row r="72" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C72" s="145"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="139" t="s">
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139" t="s">
-        <v>78</v>
-      </c>
-      <c r="L72" s="139"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="140"/>
-    </row>
-    <row r="73" spans="3:15" ht="235.15" customHeight="1">
-      <c r="C73" s="145"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="142"/>
-    </row>
-    <row r="74" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C74" s="145"/>
-      <c r="D74" s="146"/>
-      <c r="E74" s="139" t="s">
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="33"/>
+    </row>
+    <row r="73" spans="3:15" ht="235.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="35"/>
+    </row>
+    <row r="74" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="139"/>
-      <c r="G74" s="139"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="139"/>
-      <c r="J74" s="139"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="139"/>
-      <c r="M74" s="139"/>
-      <c r="N74" s="139"/>
-      <c r="O74" s="140"/>
-    </row>
-    <row r="75" spans="3:15" ht="150" customHeight="1" thickBot="1">
-      <c r="C75" s="147"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="143"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="143"/>
-      <c r="H75" s="143"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="143"/>
-      <c r="K75" s="143"/>
-      <c r="L75" s="143"/>
-      <c r="M75" s="143"/>
-      <c r="N75" s="143"/>
-      <c r="O75" s="144"/>
-    </row>
-    <row r="76" spans="3:15" ht="8.1" customHeight="1">
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="33"/>
+    </row>
+    <row r="75" spans="3:15" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="37"/>
+    </row>
+    <row r="76" spans="3:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -11862,7 +11862,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="3:15" ht="16.5" customHeight="1">
+    <row r="77" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -11877,11 +11877,99 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J87" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C12:N12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:O23"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:O38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:O39"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:O36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:O37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:O46"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:O43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:O44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:O45"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="M56:O57"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:O52"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:O65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:O66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:O67"/>
+    <mergeCell ref="C59:O59"/>
+    <mergeCell ref="C60:O60"/>
     <mergeCell ref="K72:O72"/>
     <mergeCell ref="E73:J73"/>
     <mergeCell ref="K73:O73"/>
@@ -11897,94 +11985,6 @@
     <mergeCell ref="E71:J71"/>
     <mergeCell ref="K71:O71"/>
     <mergeCell ref="E72:J72"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:O65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:O66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:O67"/>
-    <mergeCell ref="C59:O59"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="M56:O57"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:O52"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:O46"/>
-    <mergeCell ref="C42:O42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:O43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:O44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:O45"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:O38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:O39"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="C41:O41"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:O36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:O37"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C32:O32"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="C18:D20"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:O23"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:O30"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C12:N12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:N16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12006,7 +12006,7 @@
       <selection activeCell="C18" sqref="C18:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="1.625" customWidth="1"/>
@@ -12014,752 +12014,752 @@
     <col min="12" max="12" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.25">
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="8.1" customHeight="1"/>
-    <row r="4" spans="2:12" ht="26.25">
+    <row r="3" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="C4" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="8.1" customHeight="1"/>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="16.5" customHeight="1">
-      <c r="C7" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="188"/>
-    </row>
-    <row r="8" spans="2:12" ht="244.15" customHeight="1">
-      <c r="C8" s="195" t="s">
+    </row>
+    <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="168" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+    </row>
+    <row r="8" spans="2:12" ht="244.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="180" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="181" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
+    </row>
+    <row r="10" spans="2:12" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="171"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+    </row>
+    <row r="11" spans="2:12" ht="215.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
+    </row>
+    <row r="13" spans="2:12" ht="197.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="177" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+    </row>
+    <row r="14" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26"/>
+      <c r="C14" s="184" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26"/>
+      <c r="C15" s="184" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="184" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+      <c r="C18" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
-    </row>
-    <row r="9" spans="2:12" ht="16.5" customHeight="1">
-      <c r="C9" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-    </row>
-    <row r="10" spans="2:12" ht="180" customHeight="1">
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191"/>
-    </row>
-    <row r="11" spans="2:12" ht="215.1" customHeight="1">
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="191"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1">
-      <c r="C12" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="162"/>
-    </row>
-    <row r="13" spans="2:12" ht="197.45" customHeight="1">
-      <c r="C13" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
-    </row>
-    <row r="14" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="199" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="199" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="199" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="199" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
-      <c r="B18" s="26"/>
-      <c r="C18" s="199" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1">
+    <row r="19" spans="2:12" s="25" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
-      <c r="C19" s="199" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
+      <c r="C19" s="184" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="186"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="2:12" s="24" customFormat="1" ht="56.45" customHeight="1">
+    <row r="20" spans="2:12" s="24" customFormat="1" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="C21" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="162"/>
-    </row>
-    <row r="22" spans="2:12" ht="196.15" customHeight="1" thickBot="1">
-      <c r="C22" s="163" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-    </row>
-    <row r="23" spans="2:12" ht="8.1" customHeight="1"/>
-    <row r="24" spans="2:12" ht="17.25" thickBot="1">
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
+    </row>
+    <row r="22" spans="2:12" ht="196.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="197" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="199"/>
+    </row>
+    <row r="23" spans="2:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" customHeight="1">
-      <c r="C25" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="174"/>
-    </row>
-    <row r="26" spans="2:12" ht="57.6" customHeight="1">
-      <c r="C26" s="178" t="s">
+    </row>
+    <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-    </row>
-    <row r="27" spans="2:12" ht="16.5" customHeight="1">
-      <c r="C27" s="175" t="s">
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="207"/>
+    </row>
+    <row r="26" spans="2:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="211" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="177"/>
-    </row>
-    <row r="28" spans="2:12" ht="75" customHeight="1">
-      <c r="C28" s="178" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-    </row>
-    <row r="29" spans="2:12" ht="16.5" customHeight="1">
-      <c r="C29" s="175" t="s">
+      <c r="D27" s="209"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="210"/>
+    </row>
+    <row r="28" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="211" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="177"/>
-    </row>
-    <row r="30" spans="2:12" ht="16.5" customHeight="1">
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="162"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="208" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="209"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="210"/>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-    </row>
-    <row r="31" spans="2:12" ht="33" customHeight="1">
+      <c r="D30" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="212"/>
+    </row>
+    <row r="31" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-    </row>
-    <row r="32" spans="2:12" ht="33" customHeight="1">
+      <c r="D31" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="162"/>
+    </row>
+    <row r="32" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-    </row>
-    <row r="33" spans="3:11" ht="66" customHeight="1">
-      <c r="C33" s="211" t="s">
+      <c r="D32" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="184" t="s">
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="162"/>
+    </row>
+    <row r="33" spans="3:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-    </row>
-    <row r="34" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C34" s="211"/>
+      <c r="D33" s="158" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="162"/>
+    </row>
+    <row r="34" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="159"/>
       <c r="D34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182" t="s">
+      <c r="E34" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
       <c r="K34" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" ht="33" customHeight="1">
-      <c r="C35" s="211"/>
-      <c r="D35" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="181"/>
-      <c r="G35" s="184" t="s">
+    </row>
+    <row r="35" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="159"/>
+      <c r="D35" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
+      <c r="E35" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="161"/>
+      <c r="G35" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
       <c r="K35" s="20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="33" customHeight="1">
-      <c r="C36" s="211"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="181"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
+    <row r="36" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="159"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="161"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="20">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="33" customHeight="1">
-      <c r="C37" s="211"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="181"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
+    <row r="37" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="159"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="161"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
       <c r="K37" s="20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="33" customHeight="1">
-      <c r="C38" s="211"/>
-      <c r="D38" s="181" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="181" t="s">
+    <row r="38" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="159"/>
+      <c r="D38" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="181"/>
-      <c r="G38" s="184" t="s">
+      <c r="E38" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="185">
+      <c r="F38" s="161"/>
+      <c r="G38" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="153">
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="33" customHeight="1">
-      <c r="C39" s="211"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="184" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="185"/>
-    </row>
-    <row r="40" spans="3:11" ht="33" customHeight="1">
-      <c r="C40" s="211"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="184" t="s">
+    <row r="39" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="159"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="185"/>
-    </row>
-    <row r="41" spans="3:11" ht="33" customHeight="1">
-      <c r="C41" s="211"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181" t="s">
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="153"/>
+    </row>
+    <row r="40" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="159"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="181" t="s">
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="153"/>
+    </row>
+    <row r="41" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="159"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="179" t="s">
+      <c r="F41" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="185">
+      <c r="G41" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="153">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="33" customHeight="1">
-      <c r="C42" s="211"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="179" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="168"/>
-    </row>
-    <row r="43" spans="3:11" ht="33" customHeight="1">
-      <c r="C43" s="211"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="202" t="s">
+    <row r="42" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="159"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="204"/>
-      <c r="K43" s="168"/>
-    </row>
-    <row r="44" spans="3:11" ht="33" customHeight="1">
-      <c r="C44" s="211"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="179" t="s">
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="164"/>
+    </row>
+    <row r="43" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="159"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="168"/>
-    </row>
-    <row r="45" spans="3:11" ht="33" customHeight="1">
-      <c r="C45" s="211"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181" t="s">
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="164"/>
+    </row>
+    <row r="44" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="159"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="179" t="s">
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="164"/>
+    </row>
+    <row r="45" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="159"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="185">
+      <c r="G45" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="153">
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="33" customHeight="1">
-      <c r="C46" s="211"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="179"/>
-      <c r="I46" s="179"/>
-      <c r="J46" s="179"/>
-      <c r="K46" s="185"/>
-    </row>
-    <row r="47" spans="3:11" ht="33" customHeight="1">
-      <c r="C47" s="211"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="179" t="s">
+    <row r="46" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="159"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="179"/>
-      <c r="I47" s="179"/>
-      <c r="J47" s="179"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="153"/>
+    </row>
+    <row r="47" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="159"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
       <c r="K47" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" ht="33" customHeight="1">
-      <c r="C48" s="211"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="181"/>
-      <c r="G48" s="179" t="s">
+    </row>
+    <row r="48" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="159"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="179"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="179"/>
-      <c r="K48" s="185">
+      <c r="F48" s="161"/>
+      <c r="G48" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="153">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="33" customHeight="1">
-      <c r="C49" s="211"/>
-      <c r="D49" s="181"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="179" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="179"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="185"/>
-    </row>
-    <row r="50" spans="3:11" ht="33" customHeight="1">
-      <c r="C50" s="211"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="179" t="s">
+    <row r="49" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="159"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="179"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="185"/>
-    </row>
-    <row r="51" spans="3:11" ht="33" customHeight="1" thickBot="1">
-      <c r="C51" s="212"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="208" t="s">
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="153"/>
+    </row>
+    <row r="50" spans="3:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="159"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="208"/>
-      <c r="G51" s="209" t="s">
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="153"/>
+    </row>
+    <row r="51" spans="3:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="160"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="210"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
       <c r="K51" s="19">
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="3:11" s="18" customFormat="1">
-      <c r="C52" s="205" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="206"/>
-      <c r="J52" s="206"/>
-      <c r="K52" s="207"/>
-    </row>
-    <row r="53" spans="3:11" ht="200.1" customHeight="1">
-      <c r="C53" s="166"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="168"/>
-    </row>
-    <row r="54" spans="3:11" ht="260.10000000000002" customHeight="1" thickBot="1">
-      <c r="C54" s="169"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="171"/>
-    </row>
-    <row r="55" spans="3:11" ht="8.1" customHeight="1"/>
-    <row r="56" spans="3:11" ht="17.25" thickBot="1">
+    <row r="52" spans="3:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="152"/>
+    </row>
+    <row r="53" spans="3:11" ht="200.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="200"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="201"/>
+      <c r="F53" s="201"/>
+      <c r="G53" s="201"/>
+      <c r="H53" s="201"/>
+      <c r="I53" s="201"/>
+      <c r="J53" s="201"/>
+      <c r="K53" s="164"/>
+    </row>
+    <row r="54" spans="3:11" ht="260.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="202"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="203"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="203"/>
+      <c r="K54" s="204"/>
+    </row>
+    <row r="55" spans="3:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11">
-      <c r="C57" s="151"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="153"/>
-    </row>
-    <row r="58" spans="3:11">
-      <c r="C58" s="154"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="156"/>
-    </row>
-    <row r="59" spans="3:11">
-      <c r="C59" s="154"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="156"/>
-    </row>
-    <row r="60" spans="3:11">
-      <c r="C60" s="154"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="156"/>
-    </row>
-    <row r="61" spans="3:11">
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="156"/>
-    </row>
-    <row r="62" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C62" s="157"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="159"/>
-    </row>
-    <row r="63" spans="3:11" ht="8.1" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="188"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="189"/>
+      <c r="G57" s="189"/>
+      <c r="H57" s="189"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="189"/>
+      <c r="K57" s="190"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="191"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="193"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="191"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="192"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="192"/>
+      <c r="H59" s="192"/>
+      <c r="I59" s="192"/>
+      <c r="J59" s="192"/>
+      <c r="K59" s="193"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60" s="191"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="192"/>
+      <c r="F60" s="192"/>
+      <c r="G60" s="192"/>
+      <c r="H60" s="192"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="193"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61" s="191"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="193"/>
+    </row>
+    <row r="62" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="194"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
+      <c r="K62" s="196"/>
+    </row>
+    <row r="63" spans="3:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
@@ -12770,7 +12770,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -12781,7 +12781,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -12792,7 +12792,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -12803,7 +12803,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -12814,7 +12814,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
@@ -12825,7 +12825,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -12836,7 +12836,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
@@ -12847,7 +12847,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="3:11">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -12858,7 +12858,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -12869,7 +12869,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -12880,7 +12880,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
@@ -12891,7 +12891,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -12902,7 +12902,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
@@ -12913,7 +12913,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -12924,18 +12924,18 @@
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
     </row>
-    <row r="79" spans="3:11" ht="323.25" customHeight="1">
-      <c r="C79" s="150"/>
-      <c r="D79" s="150"/>
-      <c r="E79" s="150"/>
-      <c r="F79" s="150"/>
-      <c r="G79" s="150"/>
-      <c r="H79" s="150"/>
-      <c r="I79" s="150"/>
-      <c r="J79" s="150"/>
-      <c r="K79" s="150"/>
-    </row>
-    <row r="80" spans="3:11">
+    <row r="79" spans="3:11" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="187"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -12946,7 +12946,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
@@ -12957,7 +12957,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -12968,7 +12968,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="3:11">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
@@ -12979,7 +12979,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" spans="3:11">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
@@ -12990,7 +12990,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
@@ -13001,7 +13001,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
-    <row r="86" spans="3:11">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
@@ -13012,7 +13012,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="3:11">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
@@ -13023,7 +13023,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
-    <row r="88" spans="3:11">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
@@ -13034,7 +13034,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="3:11">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
@@ -13045,7 +13045,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
-    <row r="90" spans="3:11">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
@@ -13056,7 +13056,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
-    <row r="91" spans="3:11">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
@@ -13067,7 +13067,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="3:11" ht="285.75" customHeight="1">
+    <row r="92" spans="3:11" ht="285.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
@@ -13080,6 +13080,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C79:K79"/>
+    <mergeCell ref="C57:K62"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="G35:J37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="D35:D37"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="K48:K50"/>
@@ -13096,53 +13143,6 @@
     <mergeCell ref="E38:F40"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G38:J38"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="G35:J37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C57:K62"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="K38:K40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13168,7 +13168,7 @@
       <selection activeCell="C7" sqref="C7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="1.625" customWidth="1"/>
@@ -13178,15 +13178,15 @@
     <col min="14" max="24" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="26.25">
+    <row r="2" spans="2:34" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:34" ht="27" thickBot="1">
+    <row r="3" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" s="29" customFormat="1" ht="27" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" s="29" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="213"/>
       <c r="D4" s="214"/>
       <c r="E4" s="214"/>
@@ -13197,10 +13197,10 @@
       <c r="J4" s="214"/>
       <c r="K4" s="215"/>
     </row>
-    <row r="5" spans="2:34" s="29" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="6" spans="2:34" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="2:34" s="29" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:34" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -13211,9 +13211,9 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
     </row>
-    <row r="7" spans="2:34" s="29" customFormat="1" ht="323.25" customHeight="1">
+    <row r="7" spans="2:34" s="29" customFormat="1" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="216" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="217"/>
       <c r="E7" s="217"/>
@@ -13235,7 +13235,7 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
     </row>
-    <row r="8" spans="2:34" s="29" customFormat="1" ht="287.25" customHeight="1" thickBot="1">
+    <row r="8" spans="2:34" s="29" customFormat="1" ht="287.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="219"/>
       <c r="D8" s="220"/>
       <c r="E8" s="220"/>
@@ -13257,7 +13257,7 @@
       <c r="AG8" s="30"/>
       <c r="AH8" s="30"/>
     </row>
-    <row r="9" spans="2:34" ht="7.5" customHeight="1">
+    <row r="9" spans="2:34" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="28"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -13268,9 +13268,9 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="2:34" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="10" spans="2:34" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13281,9 +13281,9 @@
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
     </row>
-    <row r="11" spans="2:34" s="29" customFormat="1" ht="282" customHeight="1">
+    <row r="11" spans="2:34" s="29" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="216" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="217"/>
       <c r="E11" s="217"/>
@@ -13305,7 +13305,7 @@
       <c r="AG11" s="30"/>
       <c r="AH11" s="30"/>
     </row>
-    <row r="12" spans="2:34" s="29" customFormat="1" ht="399.75" customHeight="1" thickBot="1">
+    <row r="12" spans="2:34" s="29" customFormat="1" ht="399.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="219"/>
       <c r="D12" s="220"/>
       <c r="E12" s="220"/>
@@ -13327,7 +13327,7 @@
       <c r="AG12" s="30"/>
       <c r="AH12" s="30"/>
     </row>
-    <row r="13" spans="2:34" ht="8.1" customHeight="1">
+    <row r="13" spans="2:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="28"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -13338,19 +13338,19 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="2:34" ht="8.1" customHeight="1">
+    <row r="14" spans="2:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="2:34" ht="8.1" customHeight="1">
+    <row r="15" spans="2:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="2:34" ht="8.1" customHeight="1">
+    <row r="16" spans="2:34" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:11" ht="8.1" customHeight="1">
+    <row r="17" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="8.1" customHeight="1">
+    <row r="18" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -13363,7 +13363,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" ht="8.1" customHeight="1">
+    <row r="19" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -13376,7 +13376,7 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1">
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -13389,7 +13389,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1">
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -13402,10 +13402,10 @@
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="23" spans="1:11" ht="49.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:11" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="236" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="237"/>
       <c r="E23" s="237"/>
@@ -13416,15 +13416,15 @@
       <c r="J23" s="237"/>
       <c r="K23" s="238"/>
     </row>
-    <row r="24" spans="1:11" ht="8.1" customHeight="1"/>
-    <row r="25" spans="1:11" ht="17.25" thickBot="1">
+    <row r="24" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="402.6" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="402.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="222" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="223"/>
       <c r="E26" s="223"/>
@@ -13435,9 +13435,9 @@
       <c r="J26" s="223"/>
       <c r="K26" s="224"/>
     </row>
-    <row r="27" spans="1:11" ht="130.15" customHeight="1">
+    <row r="27" spans="1:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="225" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="226"/>
       <c r="E27" s="226"/>
@@ -13448,7 +13448,7 @@
       <c r="J27" s="226"/>
       <c r="K27" s="227"/>
     </row>
-    <row r="28" spans="1:11" ht="85.15" customHeight="1">
+    <row r="28" spans="1:11" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="228"/>
       <c r="D28" s="226"/>
       <c r="E28" s="226"/>
@@ -13459,9 +13459,9 @@
       <c r="J28" s="226"/>
       <c r="K28" s="227"/>
     </row>
-    <row r="29" spans="1:11" ht="175.5" customHeight="1">
+    <row r="29" spans="1:11" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="225" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="226"/>
       <c r="E29" s="226"/>
@@ -13472,7 +13472,7 @@
       <c r="J29" s="226"/>
       <c r="K29" s="227"/>
     </row>
-    <row r="30" spans="1:11" ht="288" customHeight="1">
+    <row r="30" spans="1:11" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="228"/>
       <c r="D30" s="226"/>
       <c r="E30" s="226"/>
@@ -13483,9 +13483,9 @@
       <c r="J30" s="226"/>
       <c r="K30" s="227"/>
     </row>
-    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="228" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="226"/>
       <c r="E31" s="226"/>
@@ -13496,9 +13496,9 @@
       <c r="J31" s="226"/>
       <c r="K31" s="227"/>
     </row>
-    <row r="32" spans="1:11" ht="399.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="399.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="229" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="230"/>
       <c r="E32" s="230"/>
@@ -13509,28 +13509,28 @@
       <c r="J32" s="230"/>
       <c r="K32" s="231"/>
     </row>
-    <row r="34" spans="3:18" ht="17.25" thickBot="1">
+    <row r="34" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" ht="348" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" ht="348" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="232" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="152"/>
+      <c r="R35" s="17"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36" s="233" t="s">
         <v>144</v>
-      </c>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="207"/>
-      <c r="R35" s="17"/>
-    </row>
-    <row r="36" spans="3:18">
-      <c r="C36" s="233" t="s">
-        <v>145</v>
       </c>
       <c r="D36" s="234"/>
       <c r="E36" s="234"/>
@@ -13541,18 +13541,18 @@
       <c r="J36" s="234"/>
       <c r="K36" s="235"/>
     </row>
-    <row r="37" spans="3:18" ht="134.1" customHeight="1" thickBot="1">
-      <c r="C37" s="169"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="171"/>
-    </row>
-    <row r="38" spans="3:18" ht="8.1" customHeight="1"/>
+    <row r="37" spans="3:18" ht="134.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="203"/>
+      <c r="K37" s="204"/>
+    </row>
+    <row r="38" spans="3:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C4:K4"/>
